--- a/src/test/java/com/born/xls/Suite.xlsx
+++ b/src/test/java/com/born/xls/Suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6795"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14310" windowHeight="3010"/>
   </bookViews>
   <sheets>
     <sheet name="Test Suite" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>TSID</t>
   </si>
@@ -28,9 +28,6 @@
     <t>Login functionality</t>
   </si>
   <si>
-    <t>Check out</t>
-  </si>
-  <si>
     <t>My Account</t>
   </si>
   <si>
@@ -38,12 +35,6 @@
   </si>
   <si>
     <t>Account details</t>
-  </si>
-  <si>
-    <t>CheckoutScenarios</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
   <si>
     <t>Y</t>
@@ -129,19 +120,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -447,21 +432,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="23.26953125" style="2" customWidth="1"/>
     <col min="2" max="2" width="35" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="2"/>
+    <col min="3" max="3" width="9.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -472,37 +457,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/com/born/xls/Suite.xlsx
+++ b/src/test/java/com/born/xls/Suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14310" windowHeight="3010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6795"/>
   </bookViews>
   <sheets>
     <sheet name="Test Suite" sheetId="1" r:id="rId1"/>
@@ -435,18 +435,18 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.26953125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" style="2" customWidth="1"/>
     <col min="2" max="2" width="35" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1796875" style="2"/>
+    <col min="3" max="3" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -457,7 +457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -468,7 +468,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>

--- a/src/test/java/com/born/xls/Suite.xlsx
+++ b/src/test/java/com/born/xls/Suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6795"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14310" windowHeight="3015"/>
   </bookViews>
   <sheets>
     <sheet name="Test Suite" sheetId="1" r:id="rId1"/>
@@ -435,7 +435,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/src/test/java/com/born/xls/Suite.xlsx
+++ b/src/test/java/com/born/xls/Suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14310" windowHeight="3015"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14310" windowHeight="3010"/>
   </bookViews>
   <sheets>
     <sheet name="Test Suite" sheetId="1" r:id="rId1"/>
@@ -438,15 +438,15 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="23.26953125" style="2" customWidth="1"/>
     <col min="2" max="2" width="35" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="2"/>
+    <col min="3" max="3" width="9.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -457,7 +457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -468,7 +468,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>

--- a/src/test/java/com/born/xls/Suite.xlsx
+++ b/src/test/java/com/born/xls/Suite.xlsx
@@ -435,7 +435,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>

--- a/src/test/java/com/born/xls/Suite.xlsx
+++ b/src/test/java/com/born/xls/Suite.xlsx
@@ -435,7 +435,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>

--- a/src/test/java/com/born/xls/Suite.xlsx
+++ b/src/test/java/com/born/xls/Suite.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>TSID</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -435,7 +438,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -465,7 +468,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">

--- a/src/test/java/com/born/xls/Suite.xlsx
+++ b/src/test/java/com/born/xls/Suite.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>TSID</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>Y</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
 </sst>
 </file>
@@ -468,7 +465,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">

--- a/src/test/java/com/born/xls/Suite.xlsx
+++ b/src/test/java/com/born/xls/Suite.xlsx
@@ -28,16 +28,16 @@
     <t>Login functionality</t>
   </si>
   <si>
-    <t>My Account</t>
-  </si>
-  <si>
     <t>Registration,Login &amp; Logout Scenarios</t>
   </si>
   <si>
-    <t>Account details</t>
-  </si>
-  <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>ProductListPage</t>
+  </si>
+  <si>
+    <t>PLP details</t>
   </si>
 </sst>
 </file>
@@ -435,7 +435,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -462,21 +462,21 @@
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/com/born/xls/Suite.xlsx
+++ b/src/test/java/com/born/xls/Suite.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>TSID</t>
   </si>
@@ -37,7 +37,13 @@
     <t>ProductListPage</t>
   </si>
   <si>
-    <t>PLP details</t>
+    <t xml:space="preserve">Product List Page Scenarios </t>
+  </si>
+  <si>
+    <t>Product Details Page Scenarios</t>
+  </si>
+  <si>
+    <t>ProductDetailsPage</t>
   </si>
 </sst>
 </file>
@@ -120,7 +126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -128,6 +134,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -461,7 +468,7 @@
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -476,6 +483,17 @@
         <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/src/test/java/com/born/xls/Suite.xlsx
+++ b/src/test/java/com/born/xls/Suite.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>TSID</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>ProductDetailsPage</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -442,7 +445,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -472,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -483,7 +486,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">

--- a/src/test/java/com/born/xls/Suite.xlsx
+++ b/src/test/java/com/born/xls/Suite.xlsx
@@ -445,7 +445,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>

--- a/src/test/java/com/born/xls/Suite.xlsx
+++ b/src/test/java/com/born/xls/Suite.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>TSID</t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t>ProductDetailsPage</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
 </sst>
 </file>
@@ -445,7 +442,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -475,7 +472,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -486,7 +483,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">

--- a/src/test/java/com/born/xls/Suite.xlsx
+++ b/src/test/java/com/born/xls/Suite.xlsx
@@ -442,7 +442,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>

--- a/src/test/java/com/born/xls/Suite.xlsx
+++ b/src/test/java/com/born/xls/Suite.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>TSID</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>ProductDetailsPage</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -442,7 +445,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -472,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -483,7 +486,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">

--- a/src/test/java/com/born/xls/Suite.xlsx
+++ b/src/test/java/com/born/xls/Suite.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>TSID</t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t>ProductDetailsPage</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
 </sst>
 </file>
@@ -475,7 +472,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -486,7 +483,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">

--- a/src/test/java/com/born/xls/Suite.xlsx
+++ b/src/test/java/com/born/xls/Suite.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>TSID</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>ProductDetailsPage</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -494,7 +497,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/com/born/xls/Suite.xlsx
+++ b/src/test/java/com/born/xls/Suite.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>TSID</t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t>ProductDetailsPage</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
 </sst>
 </file>
@@ -445,7 +442,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -497,7 +494,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/com/born/xls/Suite.xlsx
+++ b/src/test/java/com/born/xls/Suite.xlsx
@@ -442,7 +442,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C3" sqref="C3:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>

--- a/src/test/java/com/born/xls/Suite.xlsx
+++ b/src/test/java/com/born/xls/Suite.xlsx
@@ -442,7 +442,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C4"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>

--- a/src/test/java/com/born/xls/Suite.xlsx
+++ b/src/test/java/com/born/xls/Suite.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>TSID</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>ProductDetailsPage</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -442,7 +445,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -472,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -494,7 +497,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/com/born/xls/Suite.xlsx
+++ b/src/test/java/com/born/xls/Suite.xlsx
@@ -445,7 +445,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>

--- a/src/test/java/com/born/xls/Suite.xlsx
+++ b/src/test/java/com/born/xls/Suite.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>TSID</t>
   </si>
@@ -46,7 +46,10 @@
     <t>ProductDetailsPage</t>
   </si>
   <si>
-    <t>N</t>
+    <t>Checkout</t>
+  </si>
+  <si>
+    <t>Order Checkout functionalities</t>
   </si>
 </sst>
 </file>
@@ -442,7 +445,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
@@ -475,7 +478,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -497,7 +500,18 @@
         <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/com/born/xls/Suite.xlsx
+++ b/src/test/java/com/born/xls/Suite.xlsx
@@ -448,7 +448,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>

--- a/src/test/java/com/born/xls/Suite.xlsx
+++ b/src/test/java/com/born/xls/Suite.xlsx
@@ -448,7 +448,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>

--- a/src/test/java/com/born/xls/Suite.xlsx
+++ b/src/test/java/com/born/xls/Suite.xlsx
@@ -448,7 +448,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>

--- a/src/test/java/com/born/xls/Suite.xlsx
+++ b/src/test/java/com/born/xls/Suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14310" windowHeight="3010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14310" windowHeight="3015"/>
   </bookViews>
   <sheets>
     <sheet name="Test Suite" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>TSID</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>Order Checkout functionalities</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -448,18 +451,18 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.26953125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" style="2" customWidth="1"/>
     <col min="2" max="2" width="35" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1796875" style="2"/>
+    <col min="3" max="3" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -470,7 +473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -481,7 +484,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -489,10 +492,10 @@
         <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -500,10 +503,10 @@
         <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -511,7 +514,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
